--- a/biology/Botanique/Dendrocalamus/Dendrocalamus.xlsx
+++ b/biology/Botanique/Dendrocalamus/Dendrocalamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocalamus est un genre tropical de bambou géant similaire au genre Bambusa. Avec environ 29 espèces, ce genre se trouve sur le sous-continent indien en Asie du Sud. Dendrocalamus giganteus est une des plus hautes espèces de bambous, capable d'atteindre une hauteur de 30 m. 
 </t>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Dendrocalamus asper (Schultes f.) Backer ex Heyne
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dendrocalamus asper (Schultes f.) Backer ex Heyne
 Dendrocalamus gigantea Munro
-Dendrocalamus strictus (Roxb.) Nees
-Espèces
-Selon POWO[2], le genre Dendrocalamus comporte 73 espèces valides. Parmi ceux-ci, citons :
+Dendrocalamus strictus (Roxb.) Nees</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dendrocalamus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dendrocalamus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon POWO, le genre Dendrocalamus comporte 73 espèces valides. Parmi ceux-ci, citons :
 Dendrocalamus asper (Schult.f.) Backer
 Dendrocalamus birmanicus A.Camus
 Dendrocalamus brandisii  (Munro) Kurz
@@ -535,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Dendrocalamus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dendrocalamus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Klemachloa R.Parker
 Oreobambos K.Schum.
